--- a/resultados(logs_saidas)/resultadosLeNet/models_metrics.xlsx
+++ b/resultados(logs_saidas)/resultadosLeNet/models_metrics.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.467759781678518</v>
+        <v>1.467973557154338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9941666666666666</v>
+        <v>0.99375</v>
       </c>
       <c r="D2" t="n">
-        <v>1.477033225779838</v>
+        <v>1.479230274545386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9853333333333333</v>
+        <v>0.9828333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>157.599735</v>
+        <v>160.030779</v>
       </c>
       <c r="G2" t="n">
-        <v>46.574</v>
+        <v>46.743</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.467451415618261</v>
+        <v>1.467830800771713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9943645833333333</v>
+        <v>0.9939791666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1.476580959685305</v>
+        <v>1.478338003475615</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9856666666666667</v>
+        <v>0.9837083333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>157.714369</v>
+        <v>159.771541</v>
       </c>
       <c r="G3" t="n">
-        <v>45.727</v>
+        <v>46.297</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.467785652372572</v>
+        <v>1.467804515891605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9941041666666667</v>
+        <v>0.9940625000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1.479749459746881</v>
+        <v>1.478516336239821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9824166666666666</v>
+        <v>0.9834444444444445</v>
       </c>
       <c r="F4" t="n">
-        <v>158.611278</v>
+        <v>159.500118</v>
       </c>
       <c r="G4" t="n">
-        <v>45.627</v>
+        <v>45.947</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.46791100871563</v>
+        <v>1.467977272907893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9940052083333333</v>
+        <v>0.99390625</v>
       </c>
       <c r="D5" t="n">
-        <v>1.479278817455819</v>
+        <v>1.478287551948365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9827916666666666</v>
+        <v>0.9836875</v>
       </c>
       <c r="F5" t="n">
-        <v>158.782439</v>
+        <v>161.905068</v>
       </c>
       <c r="G5" t="n">
-        <v>45.121</v>
+        <v>46.033</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.467910353310903</v>
+        <v>1.46800213470459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.994</v>
+        <v>0.9938499999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>1.478528035067497</v>
+        <v>1.477782581714874</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9835166666666666</v>
+        <v>0.9841333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>159.246908</v>
+        <v>161.358039</v>
       </c>
       <c r="G6" t="n">
-        <v>45.705</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.468043463044697</v>
+        <v>1.467941167566511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9938715277777778</v>
+        <v>0.9939305555555555</v>
       </c>
       <c r="D7" t="n">
-        <v>1.478368219014601</v>
+        <v>1.477706554088187</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9836666666666666</v>
+        <v>0.9842638888888889</v>
       </c>
       <c r="F7" t="n">
-        <v>159.718203</v>
+        <v>161.117685</v>
       </c>
       <c r="G7" t="n">
-        <v>46.06</v>
+        <v>46.693</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.46803652656646</v>
+        <v>1.467813669795082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9938690476190476</v>
+        <v>0.9940625</v>
       </c>
       <c r="D8" t="n">
-        <v>1.477957678783266</v>
+        <v>1.477493817954803</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9839761904761904</v>
+        <v>0.9844999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>160.34202</v>
+        <v>160.55456</v>
       </c>
       <c r="G8" t="n">
-        <v>47.069</v>
+        <v>46.79</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.468073910613855</v>
+        <v>1.467829661448797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9938203125</v>
+        <v>0.9940416666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>1.477791458130517</v>
+        <v>1.477305639455927</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9841041666666667</v>
+        <v>0.9847083333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>159.29441</v>
+        <v>161.1254</v>
       </c>
       <c r="G9" t="n">
-        <v>48.258</v>
+        <v>47.189</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.468056381048979</v>
+        <v>1.467792299641503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9938263888888889</v>
+        <v>0.9940879629629631</v>
       </c>
       <c r="D10" t="n">
-        <v>1.477722463455606</v>
+        <v>1.477287031305033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9841203703703704</v>
+        <v>0.98475</v>
       </c>
       <c r="F10" t="n">
-        <v>160.529961</v>
+        <v>159.52721</v>
       </c>
       <c r="G10" t="n">
-        <v>48.908</v>
+        <v>47.73</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.468155533059438</v>
+        <v>1.467819216680527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.99373125</v>
+        <v>0.9940645833333335</v>
       </c>
       <c r="D11" t="n">
-        <v>1.477560123230549</v>
+        <v>1.477159527451434</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9842833333333333</v>
+        <v>0.9848916666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>159.156967</v>
+        <v>161.770044</v>
       </c>
       <c r="G11" t="n">
-        <v>48.564</v>
+        <v>48.745</v>
       </c>
     </row>
   </sheetData>
